--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="16170"/>
+    <workbookView windowWidth="18330" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>为啥城镇这么规整</t>
+    <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
   <si>
-    <t>大头特效展示头部细节</t>
+    <t>2.大头特效展示头部细节</t>
+  </si>
+  <si>
+    <t>3.碎纸机碎纸复原</t>
+  </si>
+  <si>
+    <t>4.无法表达自己的想法，工作量大，工资比例低</t>
+  </si>
+  <si>
+    <t>5.碎纸机碎纸复原</t>
+  </si>
+  <si>
+    <t>6.住西式别墅的既得利益者</t>
+  </si>
+  <si>
+    <t>7.物件采用一些高设计的原型，参考b站82年牛顿</t>
   </si>
 </sst>
 </file>
@@ -989,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1005,6 +1020,31 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18330" windowHeight="11895"/>
+    <workbookView windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>7.物件采用一些高设计的原型，参考b站82年牛顿</t>
+  </si>
+  <si>
+    <t>8.人物：爱德华：上流社会歌舞升平的生活以爱德华七世为代表。他平易近人，恣情享乐。无论是同丹麦亚历山德拉公主结婚前还是婚后，他都时常与漂亮女人传出绯闻，公主似乎也对丈夫的花心行径习以为常。爱德华国王喜爱佳肴、美酒、出国旅游以及深夜聚会。欧洲社会都以他为表率。正如历史学家弗吉尼亚·考尔斯所说：“爱德华时代的社会积极迎合国王的个人需求，凡事都讲究铺张的排场。人们纷纷举办舞会、晚宴与乡间别墅晚会。这是个史无前例的时代。人们花更多的钱购买服装，享用更多的美食，举办更多的赛马比赛，猎杀更多的小鸟，订制更多的游艇，通奸行为异常普遍。人们尽情欢乐，聚会到深夜。</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1045,6 +1048,11 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14625"/>
+    <workbookView windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>8.人物：爱德华：上流社会歌舞升平的生活以爱德华七世为代表。他平易近人，恣情享乐。无论是同丹麦亚历山德拉公主结婚前还是婚后，他都时常与漂亮女人传出绯闻，公主似乎也对丈夫的花心行径习以为常。爱德华国王喜爱佳肴、美酒、出国旅游以及深夜聚会。欧洲社会都以他为表率。正如历史学家弗吉尼亚·考尔斯所说：“爱德华时代的社会积极迎合国王的个人需求，凡事都讲究铺张的排场。人们纷纷举办舞会、晚宴与乡间别墅晚会。这是个史无前例的时代。人们花更多的钱购买服装，享用更多的美食，举办更多的赛马比赛，猎杀更多的小鸟，订制更多的游艇，通奸行为异常普遍。人们尽情欢乐，聚会到深夜。</t>
+  </si>
+  <si>
+    <t>9.加入机器眼分析断案，男主人物反转（非外星人，而是机器人）</t>
+  </si>
+  <si>
+    <t>10.主角设计为聋子，这样就不用加其他配音了。</t>
   </si>
 </sst>
 </file>
@@ -1007,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1053,6 +1059,16 @@
     <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16500"/>
+    <workbookView windowHeight="16500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="汇总" sheetId="2" r:id="rId1"/>
+    <sheet name="待整理" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -58,13 +58,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -519,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,34 +537,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,99 +573,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,65 +1025,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1081,14 +1042,68 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>10.主角设计为聋子，这样就不用加其他配音了。</t>
+  </si>
+  <si>
+    <t>11.走关系，内心的挣扎。</t>
   </si>
 </sst>
 </file>
@@ -667,11 +670,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1042,10 +1042,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1054,53 +1054,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>11.走关系，内心的挣扎。</t>
+  </si>
+  <si>
+    <t>12男主失忆，女主诈骗结婚登记表。</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1045,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1108,6 +1111,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>12男主失忆，女主诈骗结婚登记表。</t>
+  </si>
+  <si>
+    <t>13.加入中国传统文化</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1048,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1114,6 +1117,11 @@
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="21300" windowHeight="13485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>13.加入中国传统文化</t>
+  </si>
+  <si>
+    <t>14.倒转的房间</t>
+  </si>
+  <si>
+    <t>15.通向其他地方的门</t>
+  </si>
+  <si>
+    <t>16.各种机关暗道的小房屋</t>
   </si>
 </sst>
 </file>
@@ -742,6 +751,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2743200"/>
+          <a:ext cx="12315825" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="8362950"/>
+          <a:ext cx="9696450" cy="5686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,10 +1146,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1124,10 +1222,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="13485" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>16.各种机关暗道的小房屋</t>
+  </si>
+  <si>
+    <t>17.杀人犯为了杀一个人，会杀很多人，他按顺序行事，动画展示其部分思维导图，有目标名字，因为主角的出现，打破了计划，他在修改思维导图，镜头展示电脑屏幕，出现主角名称</t>
+  </si>
+  <si>
+    <t>18.吃毒蘑菇中毒的神态，b站视频</t>
+  </si>
+  <si>
+    <t>19.赵登用事件</t>
   </si>
 </sst>
 </file>
@@ -1146,10 +1155,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1235,6 +1244,21 @@
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/积累库/点子.xlsx
+++ b/积累库/点子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>1.为啥城镇这么规整，不想是一个偏远城镇</t>
   </si>
@@ -66,13 +66,37 @@
     <t>16.各种机关暗道的小房屋</t>
   </si>
   <si>
-    <t>17.杀人犯为了杀一个人，会杀很多人，他按顺序行事，动画展示其部分思维导图，有目标名字，因为主角的出现，打破了计划，他在修改思维导图，镜头展示电脑屏幕，出现主角名称</t>
+    <t>17.杀人犯为了杀一个人，会杀很多人，他做了一个思维导图，按其中顺序行事，动画展示其思维导图，有目标名字，因为主角的出现，打破了计划，他在修改思维导图，镜头展示电脑屏幕，出现主角名称</t>
   </si>
   <si>
     <t>18.吃毒蘑菇中毒的神态，b站视频</t>
   </si>
   <si>
     <t>19.赵登用事件</t>
+  </si>
+  <si>
+    <t>20.突发地震</t>
+  </si>
+  <si>
+    <t>21.赫伦声</t>
+  </si>
+  <si>
+    <t>22.炫一个</t>
+  </si>
+  <si>
+    <t>23.这个机器人正在寻找思维逻辑，或者所可以依赖的思维体系，他在寻找什么该做，什么不该做。</t>
+  </si>
+  <si>
+    <t>24.电瓶车功能，女主开车，戴头盔功能，抓车的两侧</t>
+  </si>
+  <si>
+    <t>25.天才很少，即使是天才都无法面面俱到、。</t>
+  </si>
+  <si>
+    <t>26.心之所向轮盘</t>
+  </si>
+  <si>
+    <t>27.将眼镜镜片对到一定角度后，会出现文字</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1179,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1259,6 +1283,46 @@
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
